--- a/Jira/JiraUpload.xlsx
+++ b/Jira/JiraUpload.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView activeTab="1" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="2" r:id="rId1"/>
-    <sheet name="Tests" sheetId="1" r:id="rId2"/>
+    <sheet name="Data" r:id="rId1" sheetId="2"/>
+    <sheet name="Tests" r:id="rId2" sheetId="1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -20,7 +20,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment authorId="0" ref="B1">
       <text>
         <r>
           <rPr>
@@ -44,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
+    <comment authorId="0" ref="B2">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0">
+    <comment authorId="0" ref="B5">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0">
+    <comment authorId="0" ref="B6">
       <text>
         <r>
           <rPr>
@@ -128,7 +128,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment authorId="0" ref="A1">
       <text>
         <r>
           <rPr>
@@ -152,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment authorId="0" ref="B1">
       <text>
         <r>
           <rPr>
@@ -176,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment authorId="0" ref="C1">
       <text>
         <r>
           <rPr>
@@ -200,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment authorId="0" ref="D1">
       <text>
         <r>
           <rPr>
@@ -226,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment authorId="0" ref="E1">
       <text>
         <r>
           <rPr>
@@ -250,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment authorId="0" ref="F1">
       <text>
         <r>
           <rPr>
@@ -275,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment authorId="0" ref="G1">
       <text>
         <r>
           <rPr>
@@ -301,7 +301,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment authorId="0" ref="H1">
       <text>
         <r>
           <rPr>
@@ -327,7 +327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment authorId="0" ref="I1">
       <text>
         <r>
           <rPr>
@@ -351,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment authorId="0" ref="J1">
       <text>
         <r>
           <rPr>
@@ -376,7 +376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment authorId="0" ref="K1">
       <text>
         <r>
           <rPr>
@@ -405,7 +405,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Title</t>
   </si>
@@ -479,41 +479,30 @@
     <t>team:echo</t>
   </si>
   <si>
-    <t>richa.agarwal</t>
-  </si>
-  <si>
-    <t>Verify link is displayed "Search for HCPC" to open the dialog when HCPC field has no value selected</t>
-  </si>
-  <si>
-    <t>Verify dialog box is reopened on clicking edit icon (pencil icon) when HCPC is already selected and added</t>
-  </si>
-  <si>
-    <t>Verify dialog box has a search field, a CANCEL button and  a cross to close the dialog</t>
-  </si>
-  <si>
-    <t>Verify columns 'HCPC code' and 'Description' when search is hit</t>
-  </si>
-  <si>
-    <t>Verify green tick when an item is selected on the dialog</t>
-  </si>
-  <si>
-    <t>Verify button "USE SELECTED HCPC" when search is made on the dialog</t>
-  </si>
-  <si>
-    <t>Verify HCPC tooltip description on hovering mouse over HCPC on Dispensable unit screen</t>
-  </si>
-  <si>
-    <t>Verify HCPC description field is blank when no HCPC is selected and auto-filled when HCPC is selected</t>
-  </si>
-  <si>
-    <t>MCTS-1673</t>
+    <t>harshili.desai</t>
+  </si>
+  <si>
+    <t>MCTS-1484,MCTS-1483,MCTS-1443</t>
+  </si>
+  <si>
+    <t>Mediware123</t>
+  </si>
+  <si>
+    <t>To verify the functionality of BACK Button</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>QA-3301</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,6 +567,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -675,39 +671,37 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="4" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="4" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -724,10 +718,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -885,7 +879,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -894,13 +888,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -910,7 +904,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -919,7 +913,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -928,7 +922,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -938,12 +932,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -974,7 +968,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -993,7 +987,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1005,17 +999,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="64.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="43.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="64.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1046,7 +1040,9 @@
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1065,32 +1061,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultRowHeight="51.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="55.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="5" max="10" width="19.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="7" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="18.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="35.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="7" width="20.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="7" width="55.42578125" collapsed="true"/>
+    <col min="5" max="10" customWidth="true" style="7" width="19.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="7" width="18.42578125" collapsed="true"/>
+    <col min="12" max="16384" style="7" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="51.75" r="1" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -1125,10 +1121,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2"/>
-      <c r="B2" s="8" t="s">
-        <v>25</v>
+    <row ht="15" r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>23</v>
@@ -1137,157 +1135,17 @@
         <v>21</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/Jira/JiraUpload.xlsx
+++ b/Jira/JiraUpload.xlsx
@@ -405,7 +405,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Title</t>
   </si>
@@ -461,40 +461,38 @@
     <t>Components</t>
   </si>
   <si>
+    <t>To verify that error warning appears if the user attempts to navigate outside of the stepper to another area of the product</t>
+  </si>
+  <si>
     <t>API</t>
   </si>
   <si>
+    <t>Quality Assurance</t>
+  </si>
+  <si>
+    <t>harshili.desai</t>
+  </si>
+  <si>
+    <t>Mediware123</t>
+  </si>
+  <si>
     <t>QA</t>
   </si>
   <si>
-    <t>Quality Assurance</t>
+    <t>team:echo</t>
   </si>
   <si>
     <t>Functional</t>
   </si>
   <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>team:echo</t>
-  </si>
-  <si>
-    <t>harshili.desai</t>
-  </si>
-  <si>
-    <t>MCTS-1484,MCTS-1483,MCTS-1443</t>
-  </si>
-  <si>
-    <t>Mediware123</t>
-  </si>
-  <si>
-    <t>To verify the functionality of BACK Button</t>
+    <t xml:space="preserve">MCTS-1443,MCTS-1484,MCTS-1483
+</t>
   </si>
   <si>
     <t>TRUE</t>
   </si>
   <si>
-    <t>QA-3301</t>
+    <t>QA-3323</t>
   </si>
 </sst>
 </file>
@@ -502,7 +500,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,28 +550,6 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -670,34 +646,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="2" numFmtId="49" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="2" fontId="2" numFmtId="49" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="4" fontId="2" numFmtId="49" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="4" fontId="2" numFmtId="49" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="1"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+  <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1003,7 +981,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,15 +1011,15 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1049,7 +1027,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1057,7 +1035,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1072,76 +1050,76 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultRowHeight="51.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="18.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="7" width="35.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="7" width="20.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="7" width="55.42578125" collapsed="true"/>
-    <col min="5" max="10" customWidth="true" style="7" width="19.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="7" width="18.42578125" collapsed="true"/>
-    <col min="12" max="16384" style="7" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="18.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="35.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="20.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="55.42578125" collapsed="true"/>
+    <col min="5" max="10" customWidth="true" style="3" width="19.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="3" width="18.42578125" collapsed="true"/>
+    <col min="12" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="51.75" r="1" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="51.75" r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>25</v>
+      <c r="J2" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
